--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +983,160 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Bơ khối Anchor lạt, 5kg</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1,659,000₫</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bơ lạt President, hộp 250g</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>165,000₫</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Bơ lạt President, hộp 250g</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Bơ lạt phết Anchor, 200g</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>84,000₫</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Hộp</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Bơ mặn Allowrie, 1kg</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>120,000₫</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Bơ mặn Allowrie, 5kg</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>549,000₫</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bơ mặn AOP khối, 250g</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>179,000₫</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Hộp</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Bơ lạt Emborg 82% béo, 200g</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>116,000₫</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Gói</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Giá</t>
+          <t>Giá (VND)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -452,6 +452,11 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Ảnh</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ngày crawl</t>
         </is>
       </c>
     </row>
@@ -461,10 +466,8 @@
           <t>Bơ lạt tự nhiên TH True Butter, hộp 10 viên, 10g</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>34,500₫</t>
-        </is>
+      <c r="B2" t="n">
+        <v>34500</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -473,7 +476,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -483,10 +491,8 @@
           <t>Bơ Anchor lạt, vỉ 10 viên, 7g</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>46,000₫</t>
-        </is>
+      <c r="B3" t="n">
+        <v>46000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -495,7 +501,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -505,10 +516,8 @@
           <t>Bơ Imperial mặn, hộp 10 vỉ, 10g/8g</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>37,000₫</t>
-        </is>
+      <c r="B4" t="n">
+        <v>37000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,7 +526,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -527,10 +541,8 @@
           <t>Bơ cục Anchor lạt, 200g</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>95,000₫</t>
-        </is>
+      <c r="B5" t="n">
+        <v>95000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -539,7 +551,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -549,10 +566,8 @@
           <t>Bơ Anchor lạt, vỉ 288 viên, 7g</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1,304,000₫</t>
-        </is>
+      <c r="B6" t="n">
+        <v>1304000</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -561,7 +576,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -571,10 +591,8 @@
           <t>Bơ lạt Allowrie, 5kg</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>605,000₫</t>
-        </is>
+      <c r="B7" t="n">
+        <v>605000</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -583,7 +601,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -593,10 +616,8 @@
           <t>Bơ thực vật Baker Puff</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>109,000₫</t>
-        </is>
+      <c r="B8" t="n">
+        <v>109000</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -605,7 +626,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -615,10 +641,8 @@
           <t>Bơ lạt tự nhiên TH True Butter, 200g</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>69,000₫</t>
-        </is>
+      <c r="B9" t="n">
+        <v>69000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -627,7 +651,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -637,10 +666,8 @@
           <t>Bơ cục President lạt, 125g</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>76,500₫</t>
-        </is>
+      <c r="B10" t="n">
+        <v>76500</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -649,7 +676,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -659,10 +691,8 @@
           <t>Bơ lạt tự nhiên TH True Butter, 5kg</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>975,000₫</t>
-        </is>
+      <c r="B11" t="n">
+        <v>975000</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -671,7 +701,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -681,10 +716,8 @@
           <t>Bơ mặn Westgold, 250g</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>134,000₫</t>
-        </is>
+      <c r="B12" t="n">
+        <v>134000</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -693,7 +726,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -703,10 +741,8 @@
           <t>Bơ lạt Anchor, 1kg</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>429,000₫</t>
-        </is>
+      <c r="B13" t="n">
+        <v>429000</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -715,7 +751,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -725,10 +766,8 @@
           <t>Bơ lạt Allowrie, 1kg</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>139,000₫</t>
-        </is>
+      <c r="B14" t="n">
+        <v>139000</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -737,7 +776,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -747,10 +791,8 @@
           <t>Bơ cục President lạt, 200g</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>132,000₫</t>
-        </is>
+      <c r="B15" t="n">
+        <v>132000</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -759,7 +801,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -769,10 +816,8 @@
           <t>Bơ cục President mặn, 125g</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>76,500₫</t>
-        </is>
+      <c r="B16" t="n">
+        <v>76500</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -781,7 +826,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -791,10 +841,8 @@
           <t>Bơ lạt Westgold, 250g</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>134,000₫</t>
-        </is>
+      <c r="B17" t="n">
+        <v>134000</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -803,7 +851,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -813,10 +866,8 @@
           <t>Bơ thực vật Flora, 250g</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>70,000₫</t>
-        </is>
+      <c r="B18" t="n">
+        <v>70000</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -825,7 +876,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -835,10 +891,8 @@
           <t>Bơ lạt Bottega Zelachi, 250g</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>108,000₫</t>
-        </is>
+      <c r="B19" t="n">
+        <v>108000</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -847,7 +901,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -857,10 +916,8 @@
           <t>Bơ mặn Paysan Breton, 200g</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>122,000₫</t>
-        </is>
+      <c r="B20" t="n">
+        <v>122000</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -869,7 +926,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -879,10 +941,8 @@
           <t>Bơ lạt Emborg cook &amp; bake, 200g</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>59,000₫</t>
-        </is>
+      <c r="B21" t="n">
+        <v>59000</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -891,7 +951,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -901,10 +966,8 @@
           <t>Bơ cục Anchor mặn, 200g</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>95,000₫</t>
-        </is>
+      <c r="B22" t="n">
+        <v>95000</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -913,7 +976,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -923,10 +991,8 @@
           <t>Bơ mặn Imperial, 227g/200g</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>85,000₫</t>
-        </is>
+      <c r="B23" t="n">
+        <v>85000</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -935,7 +1001,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -945,10 +1016,8 @@
           <t>Bơ lạt AOP khối, 250g</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>179,000₫</t>
-        </is>
+      <c r="B24" t="n">
+        <v>179000</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -957,7 +1026,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -967,10 +1041,8 @@
           <t>Bơ lạt Paysan Breton, 200g</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>126,000₫</t>
-        </is>
+      <c r="B25" t="n">
+        <v>126000</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -979,7 +1051,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:23</t>
         </is>
       </c>
     </row>
@@ -989,10 +1066,8 @@
           <t>Bơ khối Anchor lạt, 5kg</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1,659,000₫</t>
-        </is>
+      <c r="B26" t="n">
+        <v>1659000</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1001,7 +1076,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:35</t>
         </is>
       </c>
     </row>
@@ -1011,19 +1091,18 @@
           <t>Bơ lạt President, hộp 250g</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>165,000₫</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Bơ lạt President, hộp 250g</t>
-        </is>
-      </c>
+      <c r="B27" t="n">
+        <v>165000</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:35</t>
         </is>
       </c>
     </row>
@@ -1033,10 +1112,8 @@
           <t>Bơ lạt phết Anchor, 200g</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>84,000₫</t>
-        </is>
+      <c r="B28" t="n">
+        <v>84000</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1045,7 +1122,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:35</t>
         </is>
       </c>
     </row>
@@ -1055,10 +1137,8 @@
           <t>Bơ mặn Allowrie, 1kg</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>120,000₫</t>
-        </is>
+      <c r="B29" t="n">
+        <v>120000</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1067,7 +1147,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:35</t>
         </is>
       </c>
     </row>
@@ -1077,10 +1162,8 @@
           <t>Bơ mặn Allowrie, 5kg</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>549,000₫</t>
-        </is>
+      <c r="B30" t="n">
+        <v>549000</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1089,7 +1172,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:35</t>
         </is>
       </c>
     </row>
@@ -1099,10 +1187,8 @@
           <t>Bơ mặn AOP khối, 250g</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>179,000₫</t>
-        </is>
+      <c r="B31" t="n">
+        <v>179000</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1111,7 +1197,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:35</t>
         </is>
       </c>
     </row>
@@ -1121,10 +1212,8 @@
           <t>Bơ lạt Emborg 82% béo, 200g</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>116,000₫</t>
-        </is>
+      <c r="B32" t="n">
+        <v>116000</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1133,7 +1222,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://online.mmvietnam.com/data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+          <t>data:image/svg+xml;base64,PHN2ZyB4bWxucz0naHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmcnIHdpZHRoPScxJyBoZWlnaHQ9JzEnPjxyZWN0IHdpZHRoPScxJyBoZWlnaHQ9JzEnIHN0eWxlPSdmaWxsOiBub25lJyAvPjwvc3ZnPg==</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-11-17 17:01:35</t>
         </is>
       </c>
     </row>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46000</v>
+        <v>41000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95000</v>
+        <v>119000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1304000</v>
+        <v>1179000</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95000</v>
+        <v>119000</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:23</t>
+          <t>2025-11-20 15:47:08</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:35</t>
+          <t>2025-11-20 15:47:18</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:35</t>
+          <t>2025-11-20 15:47:18</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:35</t>
+          <t>2025-11-20 15:47:18</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:35</t>
+          <t>2025-11-20 15:47:18</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:35</t>
+          <t>2025-11-20 15:47:18</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:35</t>
+          <t>2025-11-20 15:47:18</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-11-17 17:01:35</t>
+          <t>2025-11-20 15:47:18</t>
         </is>
       </c>
     </row>
